--- a/data.xlsx
+++ b/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083D33D5-ACE2-471A-AF4C-36FDD990A538}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7660104A-764F-4EDD-89C1-C9AA41E20EB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="库存" sheetId="1" r:id="rId1"/>
@@ -22,207 +22,167 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>合计</t>
   </si>
   <si>
+    <t>东屏镇 </t>
+  </si>
+  <si>
+    <t>和凤镇 </t>
+  </si>
+  <si>
+    <t>洪蓝镇 </t>
+  </si>
+  <si>
+    <t>开发区 </t>
+  </si>
+  <si>
+    <t>石湫镇 </t>
+  </si>
+  <si>
+    <t>永阳街道 </t>
+  </si>
+  <si>
+    <t>白马镇 </t>
+  </si>
+  <si>
+    <t>比例(%)</t>
+  </si>
+  <si>
+    <t>区属</t>
+  </si>
+  <si>
+    <t>sold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sold_mom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sold_yoy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_mom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_yoy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_mom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_yoy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_mom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_yoy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_cumsold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_cumsold_yoy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_cummoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_cumset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_cumprice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_cumprice_mom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR_cumsold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR_cumsold_yoy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR_cummoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR_cummoney_yoy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR_cumset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR_cumset_yoy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR_cumprice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR_cumprice_yoy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_cummoney_yoy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_cumset_yoy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_set</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>街道</t>
-  </si>
-  <si>
-    <t>累计</t>
-  </si>
-  <si>
-    <t>可售面积</t>
-  </si>
-  <si>
-    <t>可售套数</t>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>东屏镇 </t>
-  </si>
-  <si>
-    <t>和凤镇 </t>
-  </si>
-  <si>
-    <t>洪蓝镇 </t>
-  </si>
-  <si>
-    <t>开发区 </t>
-  </si>
-  <si>
-    <t>石湫镇 </t>
-  </si>
-  <si>
-    <t>永阳街道 </t>
-  </si>
-  <si>
-    <t>白马镇 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>永阳街道 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发区 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>洪蓝镇 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>和凤镇 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>东屏镇 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>石湫镇 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶桥镇 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白马镇 </t>
-  </si>
-  <si>
-    <t>比例(%)</t>
-  </si>
-  <si>
-    <t>区属</t>
-  </si>
-  <si>
-    <t>sold</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sold_mom</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sold_yoy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>money_mom</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>money_yoy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>price_mom</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>price_yoy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>set</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>set_mom</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>set_yoy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_cumsold</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_cumsold_yoy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_cummoney</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_cummoney_mom</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_cumset</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_cumset_mom</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_cumprice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_cumprice_mom</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SR_cumsold</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SR_cumsold_yoy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SR_cummoney</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SR_cummoney_yoy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SR_cumset</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SR_cumset_yoy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SR_cumprice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SR_cumprice_yoy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SR</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -314,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -363,38 +323,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -411,24 +345,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -711,189 +635,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>981744.96</v>
+      </c>
+      <c r="C2" s="1">
+        <v>16081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10114.26</v>
+      </c>
+      <c r="C3" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B4" s="2">
+        <v>22643.49</v>
+      </c>
+      <c r="C4" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="2" t="s">
+      <c r="B5" s="2">
+        <v>14344.79</v>
+      </c>
+      <c r="C5" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B6" s="2">
+        <v>19490.8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>247100</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2151</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6">
-        <f>VLOOKUP(E3,$A$3:$B$10,2,0)/10000</f>
-        <v>6.7993740000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2">
-        <v>9662.1200000000008</v>
-      </c>
-      <c r="C4" s="2">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4" si="0">VLOOKUP(E4,$A$3:$B$9,2,0)/10000</f>
-        <v>13.17169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="B7" s="2">
+        <v>289930.15000000002</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>51615.79</v>
+      </c>
+      <c r="C8" s="2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <v>19317.439999999999</v>
-      </c>
-      <c r="C5" s="2">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="6">
-        <f>VLOOKUP(E5,$A$3:$B$9,2,0)/10000</f>
-        <v>0.74415600000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>10260.969999999999</v>
-      </c>
-      <c r="C6" s="2">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="6">
-        <f>VLOOKUP(E6,$A$3:$B$9,2,0)/10000</f>
-        <v>7.2700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>7441.56</v>
-      </c>
-      <c r="C7" s="2">
-        <v>81</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="6">
-        <f>VLOOKUP(E7,$A$3:$B$9,2,0)/10000</f>
-        <v>0.96621200000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>131716.9</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1051</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="6">
-        <f>VLOOKUP(E8,$A$3:$B$9,2,0)/10000</f>
-        <v>1.026097</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="B9" s="2">
-        <v>727</v>
+        <v>573605.68000000005</v>
       </c>
       <c r="C9" s="2">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="6">
-        <f>VLOOKUP(E9,$A$3:$B$9,2,0)/10000</f>
-        <v>1.9317439999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2">
-        <v>67993.740000000005</v>
-      </c>
-      <c r="C10" s="2">
-        <v>541</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="6">
-        <f>VLOOKUP(E11,$A$3:$B$9,2,0)/10000</f>
-        <v>24.71</v>
+        <v>10990</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -904,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624EBF07-499D-45C3-A855-B48FABD75B1C}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -921,49 +770,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>32</v>
+      <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5">
         <v>21188.2</v>
@@ -1004,7 +853,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5">
         <v>20501.75</v>
@@ -1054,7 +903,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1085,74 +934,74 @@
   <sheetData>
     <row r="1" spans="1:22" ht="28.5">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A2" s="11">
+      <c r="A2" s="6">
         <v>16.940000000000001</v>
       </c>
       <c r="B2" s="4">
@@ -1161,7 +1010,7 @@
       <c r="C2" s="4">
         <v>3.32</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="6">
         <v>166614.29999999999</v>
       </c>
       <c r="E2" s="4">
@@ -1170,7 +1019,7 @@
       <c r="F2" s="4">
         <v>1.52</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="6">
         <v>1694</v>
       </c>
       <c r="H2" s="4">
@@ -1179,13 +1028,13 @@
       <c r="I2" s="4">
         <v>2.76</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="6">
         <v>9836</v>
       </c>
       <c r="K2" s="4">
         <v>34.450000000000003</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="6">
         <v>16.27</v>
       </c>
       <c r="M2" s="4">
@@ -1194,7 +1043,7 @@
       <c r="N2" s="4">
         <v>3.33</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="6">
         <v>159780.24</v>
       </c>
       <c r="P2" s="4">
@@ -1203,7 +1052,7 @@
       <c r="Q2" s="4">
         <v>1.49</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="6">
         <v>1583</v>
       </c>
       <c r="S2" s="4">
@@ -1212,7 +1061,7 @@
       <c r="T2" s="4">
         <v>2.77</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="6">
         <v>9822</v>
       </c>
       <c r="V2" s="4">
